--- a/TestData/TMTT0009535_TMTC0001544_TMTC0001548_TMTI0045473_TMTI0045475_VerifyRateGenerationToStaffWithDifferentTitleInSummaryAndDetailsLogTab.xlsx
+++ b/TestData/TMTT0009535_TMTC0001544_TMTC0001548_TMTI0045473_TMTI0045475_VerifyRateGenerationToStaffWithDifferentTitleInSummaryAndDetailsLogTab.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20391"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vkumar0427\source\repos\SalesForce_Project\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vijay.kumar\source\repos\SalesForce_Project\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{913B8925-7F28-4FD4-AE9F-1E332C568914}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99084D9E-EB9B-4905-9C33-5EE8F5E9805E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12750" windowHeight="2970" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="5" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="40">
   <si>
     <t>Global Search User</t>
   </si>
@@ -79,12 +79,6 @@
     <t>Staff</t>
   </si>
   <si>
-    <t>Debevoise_Xie (Consulting) - 26378</t>
-  </si>
-  <si>
-    <t>Engagement Debevoise_Xie (Consulting)-FVA-26378</t>
-  </si>
-  <si>
     <t>8.0</t>
   </si>
   <si>
@@ -109,12 +103,6 @@
     <t>Financial Analyst</t>
   </si>
   <si>
-    <t>(MEH) Thompson_CLP Toxicology - 26495</t>
-  </si>
-  <si>
-    <t>Engagement (MEH) Thompson_CLP Toxicology - 26495</t>
-  </si>
-  <si>
     <t>95</t>
   </si>
   <si>
@@ -127,24 +115,12 @@
     <t>95.00</t>
   </si>
   <si>
-    <t>(GB) Anthony_ACOVA - 27471</t>
-  </si>
-  <si>
-    <t>E - (GB) Anthony_ACOVA - 27471</t>
-  </si>
-  <si>
     <t>Terence Tchen</t>
   </si>
   <si>
     <t>Senior Advisor</t>
   </si>
   <si>
-    <t>Eventide - 111771</t>
-  </si>
-  <si>
-    <t>Engagement Eventide-FVA-111771</t>
-  </si>
-  <si>
     <t>1,000</t>
   </si>
   <si>
@@ -161,13 +137,25 @@
   </si>
   <si>
     <t>0</t>
+  </si>
+  <si>
+    <t>(MEH) Thompson_CLP Toxicology-Thompson Hine, LLP-FVA-26495</t>
+  </si>
+  <si>
+    <t>Debevoise_Xie (Consulting)-Debevoise &amp; Plimpton LLP-FVA-26378</t>
+  </si>
+  <si>
+    <t>(GB) Anthony_ACOVA-Anthony Ostlund Baer &amp; Louwagie P.A.-FVA-27471</t>
+  </si>
+  <si>
+    <t>Eventide-Eventide Asset Management, LLC-FVA-111771</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,14 +172,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -224,8 +204,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -509,21 +489,21 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -538,21 +518,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="49.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="44.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="61.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -563,93 +543,93 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>27</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>36</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>38</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>39</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -662,20 +642,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="49.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="61.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -686,78 +666,78 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>27</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>36</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>38</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>39</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -771,16 +751,17 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="B2" sqref="B2:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="61.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -788,35 +769,35 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="4" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="4" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -831,38 +812,38 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>22</v>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C2" s="3">
         <v>983</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -873,26 +854,27 @@
         <v>752</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>24</v>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>34</v>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/TestData/TMTT0009535_TMTC0001544_TMTC0001548_TMTI0045473_TMTI0045475_VerifyRateGenerationToStaffWithDifferentTitleInSummaryAndDetailsLogTab.xlsx
+++ b/TestData/TMTT0009535_TMTC0001544_TMTC0001548_TMTI0045473_TMTI0045475_VerifyRateGenerationToStaffWithDifferentTitleInSummaryAndDetailsLogTab.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vijay.kumar\source\repos\SalesForce_Project\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VKumar0427\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99084D9E-EB9B-4905-9C33-5EE8F5E9805E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28AE3B2F-F9D4-42DB-BE90-DD9ACF34AA9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14640" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="5" r:id="rId1"/>
@@ -58,9 +58,6 @@
     <t>Rate Sheet</t>
   </si>
   <si>
-    <t>Schedule A</t>
-  </si>
-  <si>
     <t>Title</t>
   </si>
   <si>
@@ -149,6 +146,9 @@
   </si>
   <si>
     <t>Eventide-Eventide Asset Management, LLC-FVA-111771</t>
+  </si>
+  <si>
+    <t>DRC - Original</t>
   </si>
 </sst>
 </file>
@@ -199,13 +199,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -492,20 +491,20 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -518,21 +517,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="61.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="44.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="61.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -543,93 +542,93 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -646,16 +645,16 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="61.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="61.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -666,78 +665,78 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -750,18 +749,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="61.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="61.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="61.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -769,36 +768,36 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>39</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -815,62 +814,62 @@
       <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="C2" s="3">
         <v>983</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="3">
         <v>752</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="C4" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
